--- a/RoboticEnterpriseFrameworkDemo/Data/Config.xlsx
+++ b/RoboticEnterpriseFrameworkDemo/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Catherine-Schiber-Code\RoboticEnterpriseFrameworkDemo\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6CC4BF7-350F-4EDC-917A-A263BE2C476A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9274CEB9-D4EE-4893-B307-569080FC1B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="1020" windowWidth="17300" windowHeight="9980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3020" yWindow="1320" windowWidth="17300" windowHeight="9980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -159,12 +159,6 @@
     <t xml:space="preserve">The maximum number of consecutive system exceptions was reached. </t>
   </si>
   <si>
-    <t>DemoQueue</t>
-  </si>
-  <si>
-    <t>catherine937@revature.net's workspace</t>
-  </si>
-  <si>
     <t>Key for the weather api</t>
   </si>
   <si>
@@ -172,6 +166,12 @@
   </si>
   <si>
     <t>myKey</t>
+  </si>
+  <si>
+    <t>GetawayGurus</t>
+  </si>
+  <si>
+    <t>ccs_test</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -600,7 +600,7 @@
         <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>22</v>
@@ -611,7 +611,7 @@
         <v>31</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -2797,7 +2797,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
@@ -2846,16 +2846,16 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" t="s">
         <v>47</v>
       </c>
-      <c r="C2" t="s">
-        <v>45</v>
-      </c>
       <c r="D2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
